--- a/AEMostofa/Meherpur WD Division/P1/Ichamoti Khal/XL_FILE & KMZ/Long Section Correction/Combined_input_NDR_P_01_all_modified.xlsx
+++ b/AEMostofa/Meherpur WD Division/P1/Ichamoti Khal/XL_FILE & KMZ/Long Section Correction/Combined_input_NDR_P_01_all_modified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Design_All_DC_5\AEMostofa\Meherpur WD Division\P1\Ichamoti Khal\XL_FILE &amp; KMZ\Long Section Correction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A410324C-1639-40BE-8F83-FE2625529B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBE689F-7187-4BD0-A612-0B880703C51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,17 @@
     <sheet name="LS" sheetId="3" r:id="rId3"/>
     <sheet name="LSection" sheetId="4" r:id="rId4"/>
     <sheet name="Drawing_Sheet" sheetId="5" r:id="rId5"/>
-    <sheet name="Xsection" sheetId="6" r:id="rId6"/>
-    <sheet name="Error_XSection" sheetId="7" r:id="rId7"/>
-    <sheet name="Drawing_sh_dist" sheetId="8" r:id="rId8"/>
-    <sheet name="Notes" sheetId="9" r:id="rId9"/>
-    <sheet name="Notes_Location" sheetId="10" r:id="rId10"/>
-    <sheet name="Headers" sheetId="11" r:id="rId11"/>
+    <sheet name="Xsection" sheetId="12" r:id="rId6"/>
+    <sheet name="Xsection_backup" sheetId="6" r:id="rId7"/>
+    <sheet name="Error_XSection" sheetId="7" r:id="rId8"/>
+    <sheet name="Drawing_sh_dist" sheetId="8" r:id="rId9"/>
+    <sheet name="Notes" sheetId="9" r:id="rId10"/>
+    <sheet name="Notes_Location" sheetId="10" r:id="rId11"/>
+    <sheet name="Headers" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Combined!$A$1:$F$589</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">Drawing_sh_dist!$A$1:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Combined!$A$1:$F$590</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">Drawing_sh_dist!$A$1:$D$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Drawing_Sheet!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="189">
   <si>
     <t>SL</t>
   </si>
@@ -1131,10 +1132,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F589"/>
+  <dimension ref="A1:F590"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A422" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H428" sqref="H428"/>
+    <sheetView topLeftCell="A520" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I531" sqref="I531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7076,7 +7077,7 @@
         <v>12.85700000000001</v>
       </c>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B413" t="s">
         <v>26</v>
       </c>
@@ -7093,7 +7094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B414" t="s">
         <v>26</v>
       </c>
@@ -7107,7 +7108,7 @@
         <v>14.028000000000009</v>
       </c>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B415" t="s">
         <v>26</v>
       </c>
@@ -7121,7 +7122,7 @@
         <v>13.50800000000001</v>
       </c>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B416" t="s">
         <v>26</v>
       </c>
@@ -7135,7 +7136,7 @@
         <v>12.30800000000001</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B417" t="s">
         <v>26</v>
       </c>
@@ -7149,7 +7150,7 @@
         <v>11.41800000000001</v>
       </c>
     </row>
-    <row r="418" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B418" t="s">
         <v>26</v>
       </c>
@@ -7163,7 +7164,7 @@
         <v>11.16800000000001</v>
       </c>
     </row>
-    <row r="419" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B419" t="s">
         <v>26</v>
       </c>
@@ -7177,7 +7178,7 @@
         <v>10.82800000000001</v>
       </c>
     </row>
-    <row r="420" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B420" t="s">
         <v>26</v>
       </c>
@@ -7191,7 +7192,7 @@
         <v>10.618000000000009</v>
       </c>
     </row>
-    <row r="421" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B421" t="s">
         <v>26</v>
       </c>
@@ -7205,7 +7206,7 @@
         <v>10.26800000000001</v>
       </c>
     </row>
-    <row r="422" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B422" t="s">
         <v>26</v>
       </c>
@@ -7219,7 +7220,7 @@
         <v>10.25800000000001</v>
       </c>
     </row>
-    <row r="423" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B423" t="s">
         <v>26</v>
       </c>
@@ -7236,7 +7237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B424" t="s">
         <v>26</v>
       </c>
@@ -7250,7 +7251,7 @@
         <v>10.378000000000011</v>
       </c>
     </row>
-    <row r="425" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B425" t="s">
         <v>26</v>
       </c>
@@ -7264,7 +7265,7 @@
         <v>10.49800000000001</v>
       </c>
     </row>
-    <row r="426" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B426" t="s">
         <v>26</v>
       </c>
@@ -7278,7 +7279,7 @@
         <v>10.718000000000011</v>
       </c>
     </row>
-    <row r="427" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B427" t="s">
         <v>26</v>
       </c>
@@ -7292,7 +7293,7 @@
         <v>10.718000000000011</v>
       </c>
     </row>
-    <row r="428" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B428" t="s">
         <v>26</v>
       </c>
@@ -7306,7 +7307,7 @@
         <v>11.048000000000011</v>
       </c>
     </row>
-    <row r="429" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B429" t="s">
         <v>26</v>
       </c>
@@ -7320,7 +7321,7 @@
         <v>11.41800000000001</v>
       </c>
     </row>
-    <row r="430" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B430" t="s">
         <v>26</v>
       </c>
@@ -7334,7 +7335,7 @@
         <v>12.118000000000009</v>
       </c>
     </row>
-    <row r="431" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B431" t="s">
         <v>26</v>
       </c>
@@ -7351,7 +7352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="432" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B432" t="s">
         <v>26</v>
       </c>
@@ -7365,7 +7366,7 @@
         <v>13.22800000000001</v>
       </c>
     </row>
-    <row r="433" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B433" t="s">
         <v>26</v>
       </c>
@@ -7379,7 +7380,7 @@
         <v>13.31800000000001</v>
       </c>
     </row>
-    <row r="434" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B434" t="s">
         <v>26</v>
       </c>
@@ -7393,7 +7394,7 @@
         <v>13.25800000000001</v>
       </c>
     </row>
-    <row r="435" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B435" t="s">
         <v>26</v>
       </c>
@@ -8490,7 +8491,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="511" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B511" t="s">
         <v>34</v>
       </c>
@@ -8507,7 +8508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B512" t="s">
         <v>34</v>
       </c>
@@ -8521,7 +8522,7 @@
         <v>13.90200000000001</v>
       </c>
     </row>
-    <row r="513" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B513" t="s">
         <v>34</v>
       </c>
@@ -8535,7 +8536,7 @@
         <v>12.762000000000009</v>
       </c>
     </row>
-    <row r="514" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B514" t="s">
         <v>34</v>
       </c>
@@ -8549,7 +8550,7 @@
         <v>11.98200000000001</v>
       </c>
     </row>
-    <row r="515" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B515" t="s">
         <v>34</v>
       </c>
@@ -8563,7 +8564,7 @@
         <v>11.436000000000011</v>
       </c>
     </row>
-    <row r="516" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B516" t="s">
         <v>34</v>
       </c>
@@ -8577,7 +8578,7 @@
         <v>10.96600000000001</v>
       </c>
     </row>
-    <row r="517" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B517" t="s">
         <v>34</v>
       </c>
@@ -8591,7 +8592,7 @@
         <v>10.77600000000001</v>
       </c>
     </row>
-    <row r="518" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B518" t="s">
         <v>34</v>
       </c>
@@ -8605,7 +8606,7 @@
         <v>10.766000000000011</v>
       </c>
     </row>
-    <row r="519" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B519" t="s">
         <v>34</v>
       </c>
@@ -8619,7 +8620,7 @@
         <v>10.63600000000001</v>
       </c>
     </row>
-    <row r="520" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B520" t="s">
         <v>34</v>
       </c>
@@ -8633,7 +8634,7 @@
         <v>10.496000000000009</v>
       </c>
     </row>
-    <row r="521" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B521" t="s">
         <v>34</v>
       </c>
@@ -8650,7 +8651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="522" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B522" t="s">
         <v>34</v>
       </c>
@@ -8664,7 +8665,7 @@
         <v>10.47600000000001</v>
       </c>
     </row>
-    <row r="523" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B523" t="s">
         <v>34</v>
       </c>
@@ -8678,7 +8679,7 @@
         <v>10.36600000000001</v>
       </c>
     </row>
-    <row r="524" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B524" t="s">
         <v>34</v>
       </c>
@@ -8692,7 +8693,7 @@
         <v>10.246000000000009</v>
       </c>
     </row>
-    <row r="525" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B525" t="s">
         <v>34</v>
       </c>
@@ -8706,7 +8707,7 @@
         <v>10.266000000000011</v>
       </c>
     </row>
-    <row r="526" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B526" t="s">
         <v>34</v>
       </c>
@@ -8720,7 +8721,7 @@
         <v>10.426000000000011</v>
       </c>
     </row>
-    <row r="527" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B527" t="s">
         <v>34</v>
       </c>
@@ -8734,7 +8735,7 @@
         <v>11.016000000000011</v>
       </c>
     </row>
-    <row r="528" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B528" t="s">
         <v>34</v>
       </c>
@@ -8748,7 +8749,7 @@
         <v>11.096000000000011</v>
       </c>
     </row>
-    <row r="529" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B529" t="s">
         <v>34</v>
       </c>
@@ -8762,7 +8763,7 @@
         <v>11.436000000000011</v>
       </c>
     </row>
-    <row r="530" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B530" t="s">
         <v>34</v>
       </c>
@@ -8779,7 +8780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="531" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B531" t="s">
         <v>34</v>
       </c>
@@ -8793,7 +8794,7 @@
         <v>13.012000000000009</v>
       </c>
     </row>
-    <row r="532" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B532" t="s">
         <v>34</v>
       </c>
@@ -8807,7 +8808,7 @@
         <v>13.83200000000001</v>
       </c>
     </row>
-    <row r="533" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B533" t="s">
         <v>34</v>
       </c>
@@ -8824,21 +8825,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="534" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B534" t="s">
+        <v>34</v>
+      </c>
+      <c r="C534">
+        <v>2400</v>
+      </c>
+      <c r="D534">
         <v>35</v>
       </c>
-      <c r="C534">
-        <v>2625</v>
-      </c>
-      <c r="D534">
-        <v>0</v>
-      </c>
       <c r="E534">
-        <v>14.32800000000001</v>
+        <v>14.262000000000009</v>
       </c>
       <c r="F534" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="535" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -8849,10 +8850,13 @@
         <v>2625</v>
       </c>
       <c r="D535">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E535">
-        <v>13.89800000000001</v>
+        <v>14.32800000000001</v>
+      </c>
+      <c r="F535" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="536" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -8863,10 +8867,10 @@
         <v>2625</v>
       </c>
       <c r="D536">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E536">
-        <v>13.30800000000001</v>
+        <v>13.89800000000001</v>
       </c>
     </row>
     <row r="537" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -8877,10 +8881,10 @@
         <v>2625</v>
       </c>
       <c r="D537">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E537">
-        <v>12.618000000000009</v>
+        <v>13.30800000000001</v>
       </c>
     </row>
     <row r="538" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -8891,10 +8895,10 @@
         <v>2625</v>
       </c>
       <c r="D538">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E538">
-        <v>11.83800000000001</v>
+        <v>12.618000000000009</v>
       </c>
     </row>
     <row r="539" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -8905,10 +8909,10 @@
         <v>2625</v>
       </c>
       <c r="D539">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E539">
-        <v>11.41800000000001</v>
+        <v>11.83800000000001</v>
       </c>
     </row>
     <row r="540" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -8919,10 +8923,10 @@
         <v>2625</v>
       </c>
       <c r="D540">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E540">
-        <v>10.97800000000001</v>
+        <v>11.41800000000001</v>
       </c>
     </row>
     <row r="541" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -8933,10 +8937,10 @@
         <v>2625</v>
       </c>
       <c r="D541">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E541">
-        <v>10.82800000000001</v>
+        <v>10.97800000000001</v>
       </c>
     </row>
     <row r="542" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -8947,10 +8951,10 @@
         <v>2625</v>
       </c>
       <c r="D542">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E542">
-        <v>10.698000000000009</v>
+        <v>10.82800000000001</v>
       </c>
     </row>
     <row r="543" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -8961,10 +8965,10 @@
         <v>2625</v>
       </c>
       <c r="D543">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E543">
-        <v>10.438000000000009</v>
+        <v>10.698000000000009</v>
       </c>
     </row>
     <row r="544" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -8975,13 +8979,10 @@
         <v>2625</v>
       </c>
       <c r="D544">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E544">
-        <v>10.31800000000001</v>
-      </c>
-      <c r="F544" t="s">
-        <v>8</v>
+        <v>10.438000000000009</v>
       </c>
     </row>
     <row r="545" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -8992,10 +8993,13 @@
         <v>2625</v>
       </c>
       <c r="D545">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E545">
-        <v>10.26800000000001</v>
+        <v>10.31800000000001</v>
+      </c>
+      <c r="F545" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="546" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9006,10 +9010,10 @@
         <v>2625</v>
       </c>
       <c r="D546">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E546">
-        <v>9.9680000000000106</v>
+        <v>10.26800000000001</v>
       </c>
     </row>
     <row r="547" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9020,10 +9024,10 @@
         <v>2625</v>
       </c>
       <c r="D547">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E547">
-        <v>10.028000000000009</v>
+        <v>9.9680000000000106</v>
       </c>
     </row>
     <row r="548" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9034,10 +9038,10 @@
         <v>2625</v>
       </c>
       <c r="D548">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E548">
-        <v>10.26800000000001</v>
+        <v>10.028000000000009</v>
       </c>
     </row>
     <row r="549" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9048,10 +9052,10 @@
         <v>2625</v>
       </c>
       <c r="D549">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E549">
-        <v>10.40800000000001</v>
+        <v>10.26800000000001</v>
       </c>
     </row>
     <row r="550" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9062,10 +9066,10 @@
         <v>2625</v>
       </c>
       <c r="D550">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E550">
-        <v>10.548000000000011</v>
+        <v>10.40800000000001</v>
       </c>
     </row>
     <row r="551" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9076,10 +9080,10 @@
         <v>2625</v>
       </c>
       <c r="D551">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E551">
-        <v>10.64800000000001</v>
+        <v>10.548000000000011</v>
       </c>
     </row>
     <row r="552" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9090,10 +9094,10 @@
         <v>2625</v>
       </c>
       <c r="D552">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E552">
-        <v>10.92800000000001</v>
+        <v>10.64800000000001</v>
       </c>
     </row>
     <row r="553" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9104,10 +9108,10 @@
         <v>2625</v>
       </c>
       <c r="D553">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E553">
-        <v>11.41800000000001</v>
+        <v>10.92800000000001</v>
       </c>
     </row>
     <row r="554" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9118,10 +9122,10 @@
         <v>2625</v>
       </c>
       <c r="D554">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E554">
-        <v>11.698000000000009</v>
+        <v>11.41800000000001</v>
       </c>
     </row>
     <row r="555" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9132,10 +9136,10 @@
         <v>2625</v>
       </c>
       <c r="D555">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E555">
-        <v>11.72800000000001</v>
+        <v>11.698000000000009</v>
       </c>
     </row>
     <row r="556" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9146,13 +9150,10 @@
         <v>2625</v>
       </c>
       <c r="D556">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E556">
-        <v>12.06800000000001</v>
-      </c>
-      <c r="F556" t="s">
-        <v>9</v>
+        <v>11.72800000000001</v>
       </c>
     </row>
     <row r="557" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9163,10 +9164,13 @@
         <v>2625</v>
       </c>
       <c r="D557">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E557">
-        <v>12.98800000000001</v>
+        <v>12.06800000000001</v>
+      </c>
+      <c r="F557" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="558" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9177,10 +9181,10 @@
         <v>2625</v>
       </c>
       <c r="D558">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E558">
-        <v>13.788000000000009</v>
+        <v>12.98800000000001</v>
       </c>
     </row>
     <row r="559" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9191,27 +9195,24 @@
         <v>2625</v>
       </c>
       <c r="D559">
-        <v>40</v>
-      </c>
-      <c r="F559" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="E559">
+        <v>13.788000000000009</v>
       </c>
     </row>
     <row r="560" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B560" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C560">
-        <v>2830</v>
+        <v>2625</v>
       </c>
       <c r="D560">
-        <v>0</v>
-      </c>
-      <c r="E560">
-        <v>14.89300000000001</v>
+        <v>40</v>
       </c>
       <c r="F560" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="561" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9222,10 +9223,13 @@
         <v>2830</v>
       </c>
       <c r="D561">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E561">
-        <v>14.233000000000009</v>
+        <v>14.89300000000001</v>
+      </c>
+      <c r="F561" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="562" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9236,10 +9240,10 @@
         <v>2830</v>
       </c>
       <c r="D562">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E562">
-        <v>13.61300000000001</v>
+        <v>14.233000000000009</v>
       </c>
     </row>
     <row r="563" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9250,10 +9254,10 @@
         <v>2830</v>
       </c>
       <c r="D563">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E563">
-        <v>12.47300000000001</v>
+        <v>13.61300000000001</v>
       </c>
     </row>
     <row r="564" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9264,10 +9268,10 @@
         <v>2830</v>
       </c>
       <c r="D564">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E564">
-        <v>11.45300000000001</v>
+        <v>12.47300000000001</v>
       </c>
     </row>
     <row r="565" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9278,10 +9282,10 @@
         <v>2830</v>
       </c>
       <c r="D565">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E565">
-        <v>11.233000000000009</v>
+        <v>11.45300000000001</v>
       </c>
     </row>
     <row r="566" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9292,10 +9296,10 @@
         <v>2830</v>
       </c>
       <c r="D566">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E566">
-        <v>10.97300000000001</v>
+        <v>11.233000000000009</v>
       </c>
     </row>
     <row r="567" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9306,10 +9310,10 @@
         <v>2830</v>
       </c>
       <c r="D567">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E567">
-        <v>10.983000000000009</v>
+        <v>10.97300000000001</v>
       </c>
     </row>
     <row r="568" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9320,10 +9324,10 @@
         <v>2830</v>
       </c>
       <c r="D568">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E568">
-        <v>10.93300000000001</v>
+        <v>10.983000000000009</v>
       </c>
     </row>
     <row r="569" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9334,13 +9338,10 @@
         <v>2830</v>
       </c>
       <c r="D569">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E569">
-        <v>10.88300000000001</v>
-      </c>
-      <c r="F569" t="s">
-        <v>8</v>
+        <v>10.93300000000001</v>
       </c>
     </row>
     <row r="570" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9351,10 +9352,13 @@
         <v>2830</v>
       </c>
       <c r="D570">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E570">
-        <v>11.013000000000011</v>
+        <v>10.88300000000001</v>
+      </c>
+      <c r="F570" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="571" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9365,10 +9369,10 @@
         <v>2830</v>
       </c>
       <c r="D571">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E571">
-        <v>11.04300000000001</v>
+        <v>11.013000000000011</v>
       </c>
     </row>
     <row r="572" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9379,10 +9383,10 @@
         <v>2830</v>
       </c>
       <c r="D572">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E572">
-        <v>11.05300000000001</v>
+        <v>11.04300000000001</v>
       </c>
     </row>
     <row r="573" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9393,10 +9397,10 @@
         <v>2830</v>
       </c>
       <c r="D573">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E573">
-        <v>10.97300000000001</v>
+        <v>11.05300000000001</v>
       </c>
     </row>
     <row r="574" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9407,10 +9411,10 @@
         <v>2830</v>
       </c>
       <c r="D574">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E574">
-        <v>10.96300000000001</v>
+        <v>10.97300000000001</v>
       </c>
     </row>
     <row r="575" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9421,10 +9425,10 @@
         <v>2830</v>
       </c>
       <c r="D575">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E575">
-        <v>10.89300000000001</v>
+        <v>10.96300000000001</v>
       </c>
     </row>
     <row r="576" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9435,10 +9439,10 @@
         <v>2830</v>
       </c>
       <c r="D576">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E576">
-        <v>10.80300000000001</v>
+        <v>10.89300000000001</v>
       </c>
     </row>
     <row r="577" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9449,10 +9453,10 @@
         <v>2830</v>
       </c>
       <c r="D577">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E577">
-        <v>10.77300000000001</v>
+        <v>10.80300000000001</v>
       </c>
     </row>
     <row r="578" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9463,10 +9467,10 @@
         <v>2830</v>
       </c>
       <c r="D578">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E578">
-        <v>10.833000000000011</v>
+        <v>10.77300000000001</v>
       </c>
     </row>
     <row r="579" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9477,10 +9481,10 @@
         <v>2830</v>
       </c>
       <c r="D579">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E579">
-        <v>10.923000000000011</v>
+        <v>10.833000000000011</v>
       </c>
     </row>
     <row r="580" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9491,10 +9495,10 @@
         <v>2830</v>
       </c>
       <c r="D580">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E580">
-        <v>10.913000000000009</v>
+        <v>10.923000000000011</v>
       </c>
     </row>
     <row r="581" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9505,10 +9509,10 @@
         <v>2830</v>
       </c>
       <c r="D581">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E581">
-        <v>10.97300000000001</v>
+        <v>10.913000000000009</v>
       </c>
     </row>
     <row r="582" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9519,10 +9523,10 @@
         <v>2830</v>
       </c>
       <c r="D582">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E582">
-        <v>11.02300000000001</v>
+        <v>10.97300000000001</v>
       </c>
     </row>
     <row r="583" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9533,10 +9537,10 @@
         <v>2830</v>
       </c>
       <c r="D583">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E583">
-        <v>11.05300000000001</v>
+        <v>11.02300000000001</v>
       </c>
     </row>
     <row r="584" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9547,7 +9551,7 @@
         <v>2830</v>
       </c>
       <c r="D584">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E584">
         <v>11.05300000000001</v>
@@ -9561,10 +9565,10 @@
         <v>2830</v>
       </c>
       <c r="D585">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E585">
-        <v>11.45700000000001</v>
+        <v>11.05300000000001</v>
       </c>
     </row>
     <row r="586" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9575,13 +9579,10 @@
         <v>2830</v>
       </c>
       <c r="D586">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E586">
-        <v>11.063000000000009</v>
-      </c>
-      <c r="F586" t="s">
-        <v>9</v>
+        <v>11.45700000000001</v>
       </c>
     </row>
     <row r="587" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9592,10 +9593,13 @@
         <v>2830</v>
       </c>
       <c r="D587">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E587">
-        <v>12.483000000000009</v>
+        <v>11.063000000000009</v>
+      </c>
+      <c r="F587" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="588" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9606,10 +9610,10 @@
         <v>2830</v>
       </c>
       <c r="D588">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E588">
-        <v>12.083000000000011</v>
+        <v>12.483000000000009</v>
       </c>
     </row>
     <row r="589" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9620,20 +9624,34 @@
         <v>2830</v>
       </c>
       <c r="D589">
+        <v>43</v>
+      </c>
+      <c r="E589">
+        <v>12.083000000000011</v>
+      </c>
+    </row>
+    <row r="590" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B590" t="s">
+        <v>37</v>
+      </c>
+      <c r="C590">
+        <v>2830</v>
+      </c>
+      <c r="D590">
         <v>44</v>
       </c>
-      <c r="E589">
+      <c r="E590">
         <v>12.843000000000011</v>
       </c>
-      <c r="F589" t="s">
+      <c r="F590" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F589" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:F590" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="ICM17"/>
+        <filter val="ICM21"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -9643,6 +9661,254 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="143.6640625" customWidth="1"/>
+    <col min="3" max="21" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>14</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>15</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>16</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>1</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -9719,7 +9985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -11482,11 +11748,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EA2F2B-8C24-4808-AA93-783330485160}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11602,7 +11868,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -11623,10 +11889,10 @@
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>124</v>
       </c>
       <c r="J3" t="s">
@@ -11649,13 +11915,13 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>9.01</v>
       </c>
       <c r="D4" s="1">
@@ -11670,10 +11936,10 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>123</v>
       </c>
       <c r="J4" t="s">
@@ -11696,13 +11962,13 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>9.02</v>
       </c>
       <c r="D5" s="1">
@@ -11717,10 +11983,10 @@
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>124</v>
       </c>
       <c r="J5" t="s">
@@ -11743,13 +12009,13 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>9.02</v>
       </c>
       <c r="D6" s="1">
@@ -11764,10 +12030,10 @@
       <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>6</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>123</v>
       </c>
       <c r="J6" t="s">
@@ -11790,13 +12056,13 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>9.0299999999999994</v>
       </c>
       <c r="D7" s="1">
@@ -11811,10 +12077,10 @@
       <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>124</v>
       </c>
       <c r="J7" t="s">
@@ -11837,13 +12103,13 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>9.0299999999999994</v>
       </c>
       <c r="D8" s="1">
@@ -11858,10 +12124,10 @@
       <c r="G8">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>123</v>
       </c>
       <c r="J8" t="s">
@@ -11884,13 +12150,13 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>9.0399999999999991</v>
       </c>
       <c r="D9" s="1">
@@ -11905,10 +12171,10 @@
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>7</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>124</v>
       </c>
       <c r="J9" t="s">
@@ -11931,13 +12197,13 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>9.0399999999999991</v>
       </c>
       <c r="D10" s="1">
@@ -11952,10 +12218,10 @@
       <c r="G10">
         <v>2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>8</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>123</v>
       </c>
       <c r="J10" t="s">
@@ -11978,13 +12244,13 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>9.0399999999999991</v>
       </c>
       <c r="D11" s="1">
@@ -11999,10 +12265,10 @@
       <c r="G11">
         <v>2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>8</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>124</v>
       </c>
       <c r="J11" t="s">
@@ -12025,13 +12291,13 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>9.0500000000000007</v>
       </c>
       <c r="D12" s="1">
@@ -12046,10 +12312,10 @@
       <c r="G12">
         <v>2</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>9</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>123</v>
       </c>
       <c r="J12" t="s">
@@ -12072,13 +12338,13 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>9.0500000000000007</v>
       </c>
       <c r="D13" s="1">
@@ -12093,10 +12359,10 @@
       <c r="G13">
         <v>2</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>9</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>124</v>
       </c>
       <c r="J13" t="s">
@@ -12119,13 +12385,13 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>9.06</v>
       </c>
       <c r="D14" s="1">
@@ -12140,10 +12406,10 @@
       <c r="G14">
         <v>2</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>10</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>123</v>
       </c>
       <c r="J14" t="s">
@@ -12166,13 +12432,13 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>9.06</v>
       </c>
       <c r="D15" s="1">
@@ -12187,10 +12453,10 @@
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>10</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>124</v>
       </c>
       <c r="J15" t="s">
@@ -12213,13 +12479,13 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>9.07</v>
       </c>
       <c r="D16" s="1">
@@ -12234,10 +12500,10 @@
       <c r="G16">
         <v>2</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>11</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>123</v>
       </c>
       <c r="J16" t="s">
@@ -12260,13 +12526,13 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>9.07</v>
       </c>
       <c r="D17" s="1">
@@ -12281,10 +12547,10 @@
       <c r="G17">
         <v>2</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>11</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>124</v>
       </c>
       <c r="J17" t="s">
@@ -12307,13 +12573,13 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>9.08</v>
       </c>
       <c r="D18" s="1">
@@ -12328,10 +12594,10 @@
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>12</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>123</v>
       </c>
       <c r="J18" t="s">
@@ -12354,13 +12620,13 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>9.09</v>
       </c>
       <c r="D19" s="1">
@@ -12375,10 +12641,10 @@
       <c r="G19">
         <v>2</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>12</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>124</v>
       </c>
       <c r="J19" t="s">
@@ -12401,13 +12667,13 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>9.1</v>
       </c>
       <c r="D20" s="1">
@@ -12422,10 +12688,10 @@
       <c r="G20">
         <v>2</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>13</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>123</v>
       </c>
       <c r="J20" t="s">
@@ -12448,13 +12714,13 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>9.1</v>
       </c>
       <c r="D21" s="1">
@@ -12469,10 +12735,10 @@
       <c r="G21">
         <v>2</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>13</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>124</v>
       </c>
       <c r="J21" t="s">
@@ -12495,13 +12761,13 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>9.11</v>
       </c>
       <c r="D22" s="1">
@@ -12516,10 +12782,10 @@
       <c r="G22">
         <v>2</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>14</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>123</v>
       </c>
       <c r="J22" t="s">
@@ -12542,13 +12808,13 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>9.1199999999999992</v>
       </c>
       <c r="D23" s="1">
@@ -12563,10 +12829,10 @@
       <c r="G23">
         <v>2</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>14</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>124</v>
       </c>
       <c r="J23" t="s">
@@ -12589,13 +12855,13 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>9.1300000000000008</v>
       </c>
       <c r="D24" s="1">
@@ -12610,10 +12876,10 @@
       <c r="G24">
         <v>2</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>15</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>123</v>
       </c>
       <c r="J24" t="s">
@@ -12636,13 +12902,13 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>9.14</v>
       </c>
       <c r="D25" s="1">
@@ -12657,10 +12923,10 @@
       <c r="G25">
         <v>2</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>15</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>124</v>
       </c>
       <c r="J25" t="s">
@@ -12688,6 +12954,272 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9.11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L2">
+        <v>2.1</v>
+      </c>
+      <c r="M2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N2">
+        <v>9.11</v>
+      </c>
+      <c r="O2">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="D3" s="1">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3">
+        <v>2.4</v>
+      </c>
+      <c r="L3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M3">
+        <v>2.5125000000000002</v>
+      </c>
+      <c r="N3">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="O3">
+        <v>9.1300000000000008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="D4" s="1">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4">
+        <v>2.625</v>
+      </c>
+      <c r="L4">
+        <v>2.5125000000000002</v>
+      </c>
+      <c r="M4">
+        <v>2.7275</v>
+      </c>
+      <c r="N4">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="O4">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9.14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5">
+        <v>2.83</v>
+      </c>
+      <c r="L5">
+        <v>2.7275</v>
+      </c>
+      <c r="M5">
+        <v>2.83</v>
+      </c>
+      <c r="N5">
+        <v>9.14</v>
+      </c>
+      <c r="O5">
+        <v>9.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -12813,7 +13345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -12918,252 +13450,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H29"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="143.6640625" customWidth="1"/>
-    <col min="3" max="21" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>7</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>12</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
-        <v>14</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
-        <v>15</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
-        <v>16</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
-        <v>1</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>